--- a/output/item/소파/2021-12-18_소파.xlsx
+++ b/output/item/소파/2021-12-18_소파.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>웰퍼니쳐 생활방수 아쿠아텍스 패브릭 에반 카우치 4인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>웰퍼니쳐 생활방수 아쿠아텍스 패브릭 에반 카우치 4인용 소파</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>오스본가구 원조 라티나 구스다운 4인용 가죽&lt;b&gt;소파&lt;/b&gt;</t>
+          <t>오스본가구 원조 라티나 구스다운 4인용 가죽소파</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>까르엠가구 올리브 생활방수 아쿠아텍스 3인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 올리브 생활방수 아쿠아텍스 3인용 소파</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>우아미 루앙 3인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>우아미 루앙 3인용 소파</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>브리엔츠가구 베니스 4인용 아쿠아매직텍스 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>브리엔츠가구 베니스 4인용 아쿠아매직텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>에보니아 라인 패브릭 방수원단 3인 독립형 &lt;b&gt;소파&lt;/b&gt;베드</t>
+          <t>에보니아 라인 패브릭 방수원단 3인 독립형 소파베드</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>에보니아 리도 컵홀더 3인용 패브릭룩 방수가죽 &lt;b&gt;소파&lt;/b&gt;베드</t>
+          <t>에보니아 리도 컵홀더 3인용 패브릭룩 방수가죽 소파베드</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>우아미 레브 무빙헤드 4인용 가죽 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>우아미 레브 무빙헤드 4인용 가죽 소파</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>바네스데코 다용도 접이식 좌식등받이 가죽 &lt;b&gt;소파&lt;/b&gt;베드</t>
+          <t>바네스데코 다용도 접이식 좌식등받이 가죽 소파베드</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>에보니아 맥심 컵홀더 3인용 &lt;b&gt;소파&lt;/b&gt;베드</t>
+          <t>에보니아 맥심 컵홀더 3인용 소파베드</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>듀커 DK080 4인 모듈형 풀커버 패브릭&lt;b&gt;소파&lt;/b&gt;</t>
+          <t>듀커 DK080 4인 모듈형 풀커버 패브릭소파</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>웰퍼니쳐 에이든 아쿠아텍스 패브릭 3인용 &lt;b&gt;소파&lt;/b&gt; + 스툴</t>
+          <t>웰퍼니쳐 에이든 아쿠아텍스 패브릭 3인용 소파 + 스툴</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>웰퍼니쳐 몬스터 사하라 아쿠아텍스 3인용 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>웰퍼니쳐 몬스터 사하라 아쿠아텍스 3인용 패브릭 소파</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>웰퍼니쳐 오로라 생활방수 아쿠아텍스 &lt;b&gt;소파&lt;/b&gt; 패브릭 3인용 &lt;b&gt;쇼파&lt;/b&gt;</t>
+          <t>웰퍼니쳐 오로라 생활방수 아쿠아텍스 소파 패브릭 3인용 쇼파</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>아로미가구 로렌스 천연가죽 애쉬원목 카우치 4인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>아로미가구 로렌스 천연가죽 애쉬원목 카우치 4인용 소파</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>에보니아 라떼 2인 패브릭&lt;b&gt;소파&lt;/b&gt;</t>
+          <t>에보니아 라떼 2인 패브릭소파</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>한샘 엠마 컴포트 천연면피가죽 4인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>한샘 엠마 컴포트 천연면피가죽 4인용 소파</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>삼익가구 아이비 트랜스폼 &lt;b&gt;소파&lt;/b&gt;베드</t>
+          <t>삼익가구 아이비 트랜스폼 소파베드</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>마티노가구 로즈마리 원목 인조가죽 3인용&lt;b&gt;소파&lt;/b&gt;</t>
+          <t>마티노가구 로즈마리 원목 인조가죽 3인용소파</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>모던로그 헨트 데이베드 패브릭 &lt;b&gt;소파&lt;/b&gt;베드</t>
+          <t>모던로그 헨트 데이베드 패브릭 소파베드</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>보니애가구 몽드 아쿠아텍스 3인용 패브릭&lt;b&gt;소파&lt;/b&gt;</t>
+          <t>보니애가구 몽드 아쿠아텍스 3인용 패브릭소파</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>까르엠가구 하운즈 3인용 가죽 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 하운즈 3인용 가죽 소파</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>까르엠가구 루이스 아쿠아텍스 3인용 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 루이스 아쿠아텍스 3인용 패브릭 소파</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>동서가구 세이지 3인 거위털 가죽&lt;b&gt;소파&lt;/b&gt; 007</t>
+          <t>동서가구 세이지 3인 거위털 가죽소파 007</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>에보니아 밀란 패브릭 &lt;b&gt;소파&lt;/b&gt;베드</t>
+          <t>에보니아 밀란 패브릭 소파베드</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>브리엔츠가구 소피아 4인용 아쿠아매직텍스 패브릭 스윙 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>브리엔츠가구 소피아 4인용 아쿠아매직텍스 패브릭 스윙 소파</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>티렌토 리세 아쿠아텍스 3인 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>티렌토 리세 아쿠아텍스 3인 패브릭 소파</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>올쏘 노아 데이베드 아쿠아텍스 원목 &lt;b&gt;소파&lt;/b&gt;베드</t>
+          <t>올쏘 노아 데이베드 아쿠아텍스 원목 소파베드</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>THE BUZZ 미렌트 확장형 스타일클린 워셔블 패브릭&lt;b&gt;소파&lt;/b&gt; BS9049</t>
+          <t>THE BUZZ 미렌트 확장형 스타일클린 워셔블 패브릭소파 BS9049</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>자코모 로세티 4인 럭스 이태리 통가죽 천연면피 소가죽 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>자코모 로세티 4인 럭스 이태리 통가죽 천연면피 소가죽 소파</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>쉐우드 빈센트 4인용 통가죽 천연면피 소가죽 헤드틸팅 기능성 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>쉐우드 빈센트 4인용 통가죽 천연면피 소가죽 헤드틸팅 기능성 소파</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>폴로까사 로메인 아쿠아텍스 이지클린 사하라 4인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>폴로까사 로메인 아쿠아텍스 이지클린 사하라 4인용 소파</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>라익미 반달&lt;b&gt;소파&lt;/b&gt; 1인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>라익미 반달소파 1인용 소파</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>레이디가구 데스트라 천연소가죽 면피&lt;b&gt;소파&lt;/b&gt; 4인용 + 스툴</t>
+          <t>레이디가구 데스트라 천연소가죽 면피소파 4인용 + 스툴</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>자코모 키프 4인 카우치형 기능성 천연면피 소가죽 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>자코모 키프 4인 카우치형 기능성 천연면피 소가죽 소파</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>로체스터 하프문 4인용 아쿠아텍스 클린 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>로체스터 하프문 4인용 아쿠아텍스 클린 소파</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>잉글랜더 토마스 방수가죽 3단 접이식 &lt;b&gt;소파&lt;/b&gt;베드 2인용</t>
+          <t>잉글랜더 토마스 방수가죽 3단 접이식 소파베드 2인용</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>소피아 아쿠아텍스 이지클린 4인 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>소피아 아쿠아텍스 이지클린 4인 패브릭 소파</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>핸슨 오슬로 패브릭 4인 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>핸슨 오슬로 패브릭 4인 소파</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>동서가구 테라 라텍스탑 천연가죽 4인&lt;b&gt;소파&lt;/b&gt;</t>
+          <t>동서가구 테라 라텍스탑 천연가죽 4인소파</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>쉐우드 둔치 4인 아띠잔 내추럴 천연통가죽 기능성 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>쉐우드 둔치 4인 아띠잔 내추럴 천연통가죽 기능성 소파</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>까르엠가구 글로리 아쿠아텍스 3인용 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 글로리 아쿠아텍스 3인용 패브릭 소파</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>까르엠가구 올리브 4인용 아쿠아텍스 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 올리브 4인용 아쿠아텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>까르엠가구 오브유 4인용 아쿠아텍스 패브릭 모듈 &lt;b&gt;소파&lt;/b&gt; 코너형2 + 일반형1</t>
+          <t>까르엠가구 오브유 4인용 아쿠아텍스 패브릭 모듈 소파 코너형2 + 일반형1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>까르엠가구 오브유 3인용 아쿠아텍스 패브릭 모듈 &lt;b&gt;소파&lt;/b&gt; 일반형 + 코너형</t>
+          <t>까르엠가구 오브유 3인용 아쿠아텍스 패브릭 모듈 소파 일반형 + 코너형</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>까르엠가구 마티니 4인용 아쿠아텍스 패브릭 카우치 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 마티니 4인용 아쿠아텍스 패브릭 카우치 소파</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>까르엠가구 글로리 4인용 아쿠아텍스 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 글로리 4인용 아쿠아텍스 소파</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>까르엠가구 타이니 아쿠아텍스 4인용 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 타이니 아쿠아텍스 4인용 패브릭 소파</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>까르엠가구 마티니 가죽 4인용 카우치 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 마티니 가죽 4인용 카우치 소파</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>이케아 ANGERSBY 2인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>이케아 ANGERSBY 2인용 소파</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>THE BUZZ 니올 스타일클린 워셔블 패브릭 4인 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>THE BUZZ 니올 스타일클린 워셔블 패브릭 4인 소파</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>까르엠가구 퓨리온 4인용 아쿠아텍스 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 퓨리온 4인용 아쿠아텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>까르엠가구 타이니 아쿠아텍스 3인용 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 타이니 아쿠아텍스 3인용 패브릭 소파</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>까르엠가구 퓨리온 3인용 아쿠아텍스 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 퓨리온 3인용 아쿠아텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>까사채움 그레이스 카우치 4인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까사채움 그레이스 카우치 4인용 소파</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>까르엠가구 라우츠 4인용 아쿠아텍스 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 라우츠 4인용 아쿠아텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>레트로하우스 몽드 4인용 생활방수 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>레트로하우스 몽드 4인용 생활방수 패브릭 소파</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>까르엠가구 라우츠 3인용 아쿠아텍스 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까르엠가구 라우츠 3인용 아쿠아텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>레트로하우스 쓰담 스윙 4인용 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>레트로하우스 쓰담 스윙 4인용 패브릭 소파</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>듀커 DK052 3인용 풀커버 패브릭 &lt;b&gt;소파&lt;/b&gt; + 스툴</t>
+          <t>듀커 DK052 3인용 풀커버 패브릭 소파 + 스툴</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>까르엠가구 모노 3인 아쿠아텍스모듈 &lt;b&gt;소파&lt;/b&gt; 일반형 + 카우치형 + 팔걸이</t>
+          <t>까르엠가구 모노 3인 아쿠아텍스모듈 소파 일반형 + 카우치형 + 팔걸이</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>까르엠가구 모노 1인 아쿠아텍스 모듈 &lt;b&gt;소파&lt;/b&gt; 일반형 + 팔걸이</t>
+          <t>까르엠가구 모노 1인 아쿠아텍스 모듈 소파 일반형 + 팔걸이</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>서광퍼니처 에이든 아쿠아텍스 이지클린 4인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>서광퍼니처 에이든 아쿠아텍스 이지클린 4인용 소파</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>THE BUZZ 클레멘티 3인 + 카우치 폴쉬 린넨 패브릭&lt;b&gt;소파&lt;/b&gt; PL103</t>
+          <t>THE BUZZ 클레멘티 3인 + 카우치 폴쉬 린넨 패브릭소파 PL103</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>레이디가구 주피 패브릭 2인용 &lt;b&gt;소파&lt;/b&gt;베드</t>
+          <t>레이디가구 주피 패브릭 2인용 소파베드</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>까르엠가구 모노 4인 아쿠아텍스 패브릭 모듈 &lt;b&gt;소파&lt;/b&gt; 일반형2 + 카우치1 + 팔걸이2</t>
+          <t>까르엠가구 모노 4인 아쿠아텍스 패브릭 모듈 소파 일반형2 + 카우치1 + 팔걸이2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>오스본가구 퓨리스 구스다운 헤드레스트 4인용 가죽&lt;b&gt;소파&lt;/b&gt; 스피커 미포함</t>
+          <t>오스본가구 퓨리스 구스다운 헤드레스트 4인용 가죽소파 스피커 미포함</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>노르웨이숲 아쿠아텍스 스웨이드 생활방수 기능성 패브릭 4인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>노르웨이숲 아쿠아텍스 스웨이드 생활방수 기능성 패브릭 4인용 소파</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>에보니아 뮤즈 2인 &lt;b&gt;소파&lt;/b&gt; 스툴포함</t>
+          <t>에보니아 뮤즈 2인 소파 스툴포함</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>자코모 노바 4인 천연면피 소가죽 &lt;b&gt;소파&lt;/b&gt; + 스툴</t>
+          <t>자코모 노바 4인 천연면피 소가죽 소파 + 스툴</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>폴로까사 로한 4인용 아쿠아텍스 스웨이드 패브릭&lt;b&gt;소파&lt;/b&gt;</t>
+          <t>폴로까사 로한 4인용 아쿠아텍스 스웨이드 패브릭소파</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>보니애가구 타미 1인용 패브릭&lt;b&gt;소파&lt;/b&gt;</t>
+          <t>보니애가구 타미 1인용 패브릭소파</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>텐스페이스 위즈 2인 좌식 &lt;b&gt;소파&lt;/b&gt;베드</t>
+          <t>텐스페이스 위즈 2인 좌식 소파베드</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>브리엔츠가구 아테네 4인용 아쿠아텍스 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>브리엔츠가구 아테네 4인용 아쿠아텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>사사 엔트리 아쿠아텍스 패브릭 3인용 &lt;b&gt;소파&lt;/b&gt; + 스툴</t>
+          <t>사사 엔트리 아쿠아텍스 패브릭 3인용 소파 + 스툴</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>폴인퍼니 클로이 4인 아쿠아텍스 패브릭 조야 스윙 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>폴인퍼니 클로이 4인 아쿠아텍스 패브릭 조야 스윙 소파</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>퍼니코 레브 샤무벨벳 카우치 &lt;b&gt;소파&lt;/b&gt;베드</t>
+          <t>퍼니코 레브 샤무벨벳 카우치 소파베드</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>브리엔츠가구 나폴리 3인용 아쿠아매직텍스 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>브리엔츠가구 나폴리 3인용 아쿠아매직텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>한샘 밀로 패브릭&lt;b&gt;소파&lt;/b&gt; 3인용</t>
+          <t>한샘 밀로 패브릭소파 3인용</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>THE BUZZ 니드 확장형 아쿠아케어 풀커버 패브릭&lt;b&gt;소파&lt;/b&gt;</t>
+          <t>THE BUZZ 니드 확장형 아쿠아케어 풀커버 패브릭소파</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>브리엔츠가구 베니스 3인용 아쿠아매직텍스 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>브리엔츠가구 베니스 3인용 아쿠아매직텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>까사미아 캄포 베이직 4인 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>까사미아 캄포 베이직 4인 소파</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>아로미가구 엘사 2인용 인조가죽&lt;b&gt;소파&lt;/b&gt;</t>
+          <t>아로미가구 엘사 2인용 인조가죽소파</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>파로마 델리 아쿠아텍스 패브릭 모듈 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>파로마 델리 아쿠아텍스 패브릭 모듈 소파</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>한샘 모아 모듈형 패브릭&lt;b&gt;소파&lt;/b&gt; 3인용</t>
+          <t>한샘 모아 모듈형 패브릭소파 3인용</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>폴인퍼니 바니 3인용 생활방수 아쿠아텍스 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>폴인퍼니 바니 3인용 생활방수 아쿠아텍스 패브릭 소파</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>에보니아 까페 패브릭 생활방수 2인&lt;b&gt;소파&lt;/b&gt;</t>
+          <t>에보니아 까페 패브릭 생활방수 2인소파</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>한샘 모아 모듈형 패브릭&lt;b&gt;소파&lt;/b&gt; 4인 오픈형</t>
+          <t>한샘 모아 모듈형 패브릭소파 4인 오픈형</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>아로하 모듈형 3.5인용 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>아로하 모듈형 3.5인용 패브릭 소파</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>폴로까사 플란 4인용 아쿠아텍스 스웨이드 코너형 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>폴로까사 플란 4인용 아쿠아텍스 스웨이드 코너형 패브릭 소파</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>동서가구 노브 천연가죽 3인 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>동서가구 노브 천연가죽 3인 소파</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>벨라 천연 면피 통가죽 4인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>벨라 천연 면피 통가죽 4인용 소파</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>보니애가구 엘사 3인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>보니애가구 엘사 3인용 소파</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>보니애가구 퍼스 아쿠아텍스 3중레이어 패브릭 등받이 모듈 3인용 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>보니애가구 퍼스 아쿠아텍스 3중레이어 패브릭 등받이 모듈 3인용 소파</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>한샘 밀로 패브릭&lt;b&gt;소파&lt;/b&gt; 4인용</t>
+          <t>한샘 밀로 패브릭소파 4인용</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>듀커 클라우드 DK090 4인 듀얼 커버 패브릭 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>듀커 클라우드 DK090 4인 듀얼 커버 패브릭 소파</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>에보니아 루비 2인 패브릭&lt;b&gt;소파&lt;/b&gt;</t>
+          <t>에보니아 루비 2인 패브릭소파</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>라자가구 위드 글램 아쿠아텍스 &lt;b&gt;소파&lt;/b&gt; 2인용 cw145</t>
+          <t>라자가구 위드 글램 아쿠아텍스 소파 2인용 cw145</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>샬론 천연면피 물소 통가죽 4인 카우치 &lt;b&gt;소파&lt;/b&gt;</t>
+          <t>샬론 천연면피 물소 통가죽 4인 카우치 소파</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6913,7 +6913,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>리바트 온드 4인 패브릭 &lt;b&gt;소파&lt;/b&gt; 와이드형</t>
+          <t>리바트 온드 4인 패브릭 소파 와이드형</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
